--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>951915.9951307315</v>
+        <v>976517.455915592</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776873.403834765</v>
+        <v>4776873.403834764</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>47.29627918133471</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>167.7197079998867</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1370,73 +1370,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5.211223902333198</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.172609644471894</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,55 +1850,55 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>91.01634947177179</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.08227342302185704</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.13516915087264</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>109.8883707013301</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.10634673358869</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.0572199420196</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>95.77809019286802</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2731,49 +2731,49 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,13 +2877,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>9.779609449122125</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>105.6152911330825</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220.2131257424249</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>98.25757553142138</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>28.81865463391564</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,59 +3269,59 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>23.09694303072691</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>81.94696239689883</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>15.97482201990259</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,61 +3658,61 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3755,52 +3755,52 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>81.44781579947814</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.63780594030547</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4135,67 +4135,67 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4331,19 +4331,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4358,22 +4358,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y2" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="U2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="V2" t="n">
-        <v>199.2900309704538</v>
-      </c>
-      <c r="W2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4416,13 +4416,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
         <v>822.0713777531216</v>
@@ -4431,28 +4431,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>774.2973583780361</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>774.2973583780361</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>774.2973583780361</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>774.2973583780361</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,7 +4571,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
         <v>379.753706324525</v>
@@ -4604,7 +4604,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
         <v>431.628992076841</v>
@@ -4650,10 +4650,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4847,7 +4847,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D9" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4887,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>752.1869855945927</v>
-      </c>
-      <c r="O9" t="n">
-        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>614.4775954922324</v>
+        <v>551.4880018414752</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>343.894219580586</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5042,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5069,22 +5069,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345.09272902505</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C12" t="n">
-        <v>170.639699743923</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>21.70529008267172</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5121,49 +5121,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5230,19 +5230,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>453.0030327087026</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C14" t="n">
-        <v>245.4092504478133</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5288,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5303,25 +5303,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>660.5968149695918</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U14" t="n">
-        <v>453.0030327087026</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V14" t="n">
-        <v>453.0030327087026</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W14" t="n">
-        <v>453.0030327087026</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X14" t="n">
-        <v>453.0030327087026</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y14" t="n">
-        <v>453.0030327087026</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>653.8560407330535</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>479.4030114519265</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4686017906753</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>171.2311467852198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>24.69658881210475</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5358,16 +5358,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5385,22 +5385,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>711.1560185299961</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.216849647356</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C21" t="n">
-        <v>111.216849647356</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D21" t="n">
-        <v>111.216849647356</v>
+        <v>305.3837636211968</v>
       </c>
       <c r="E21" t="n">
-        <v>111.216849647356</v>
+        <v>305.3837636211968</v>
       </c>
       <c r="F21" t="n">
-        <v>111.216849647356</v>
+        <v>158.8492056480818</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.11838023069728</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.11838023069728</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="22">
@@ -5932,28 +5932,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C23" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D23" t="n">
-        <v>274.7999090013961</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E23" t="n">
-        <v>274.7999090013961</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F23" t="n">
-        <v>274.7999090013961</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>485.167420504237</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>761.6974622895962</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>385.8037236438013</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>853.0588012668684</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>650.8722066256344</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>422.6485883620235</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X24" t="n">
-        <v>554.0190606638694</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.0190606638694</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X26" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V26" t="n">
+      <c r="Y26" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="W26" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X26" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>879.1508727409195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>705.7335281915883</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>705.7335281915883</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.3994074699755</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C30" t="n">
-        <v>306.9463781888485</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>857.3750432549973</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>857.3750432549973</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>857.3750432549973</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>857.3750432549973</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X30" t="n">
-        <v>857.3750432549973</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.6147444900434</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X32" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y32" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>489.203140025706</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>432.4774131586771</v>
+        <v>489.203140025706</v>
       </c>
       <c r="V33" t="n">
-        <v>197.3253049269343</v>
+        <v>489.203140025706</v>
       </c>
       <c r="W33" t="n">
-        <v>168.215552771464</v>
+        <v>489.203140025706</v>
       </c>
       <c r="X33" t="n">
-        <v>168.215552771464</v>
+        <v>489.203140025706</v>
       </c>
       <c r="Y33" t="n">
-        <v>168.215552771464</v>
+        <v>489.203140025706</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>705.5748017933107</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>531.1217725121837</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>382.1873628509324</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7020,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U36" t="n">
-        <v>940.7269100250535</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V36" t="n">
-        <v>705.5748017933107</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W36" t="n">
-        <v>705.5748017933107</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X36" t="n">
-        <v>705.5748017933107</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>705.5748017933107</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
         <v>506.1786963984129</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>638.9911434400805</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C39" t="n">
-        <v>464.5381141589534</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D39" t="n">
-        <v>464.5381141589534</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,13 +7257,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>846.7514422050344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>846.7514422050344</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>846.7514422050344</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>846.7514422050344</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>846.7514422050344</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X39" t="n">
-        <v>846.7514422050344</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y39" t="n">
-        <v>638.9911434400805</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,13 +7412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7439,22 +7439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>257.9494035700918</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>98.71194856463632</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7491,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7530,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7658,10 +7658,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7679,19 +7679,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>340.5829991502264</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7843,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8064,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,10 +8219,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
@@ -8544,10 +8544,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,7 +10677,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10914,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,7 +11151,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>52.86155497130842</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22689,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22720,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387444</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972316</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23100,19 +23100,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>90.0472379818759</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>38.05327720359074</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23309,22 +23309,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23337,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>152.4338565530678</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,10 +23397,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,7 +23498,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>333.52274139514</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,7 +23507,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>129.1709075187387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23625,16 +23625,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>21.46887964564729</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23981,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>46.32716769143885</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>89.31435942839322</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,19 +24099,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24221,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>121.9340432425112</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>61.79480040250768</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,10 +24382,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936696</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>337.6653060427309</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24497,13 +24497,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>16.10061421062353</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,10 +24680,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,13 +24765,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>147.8654710062788</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>94.54943756173908</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.5207159210556</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,22 +25041,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>127.6838065495534</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>222.876328527004</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25157,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,19 +25281,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>202.8444390502479</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25394,7 +25394,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25439,10 +25439,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25470,25 +25470,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>7.449670454516252</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>155.7083490839352</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,10 +25530,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,19 +25704,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>63.62139659390574</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25770,7 +25770,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.8953777095619</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,10 +25992,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>191.0829231826191</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402435.0291802145</v>
+        <v>402435.0291802144</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402435.0291802145</v>
+        <v>402435.0291802144</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423888.3497901133</v>
+        <v>423888.3497901132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26317,7 @@
         <v>173533.4060184247</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184248</v>
@@ -26335,13 +26335,13 @@
         <v>182776.7397844657</v>
       </c>
       <c r="J2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="K2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="L2" t="n">
         <v>182776.7397844656</v>
-      </c>
-      <c r="K2" t="n">
-        <v>182776.7397844656</v>
-      </c>
-      <c r="L2" t="n">
-        <v>182776.7397844657</v>
       </c>
       <c r="M2" t="n">
         <v>182776.7397844656</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31693.21817964155</v>
+        <v>34566.06415957594</v>
       </c>
       <c r="C6" t="n">
-        <v>100566.9747613313</v>
+        <v>103439.8207412658</v>
       </c>
       <c r="D6" t="n">
-        <v>100566.9747613314</v>
+        <v>103439.8207412658</v>
       </c>
       <c r="E6" t="n">
-        <v>134194.5747613314</v>
+        <v>137067.4207412658</v>
       </c>
       <c r="F6" t="n">
-        <v>134194.5747613314</v>
+        <v>137067.4207412657</v>
       </c>
       <c r="G6" t="n">
-        <v>130083.786715527</v>
+        <v>133111.7598339177</v>
       </c>
       <c r="H6" t="n">
-        <v>139812.829689694</v>
+        <v>142840.8028080847</v>
       </c>
       <c r="I6" t="n">
-        <v>139812.8296896941</v>
+        <v>142840.8028080847</v>
       </c>
       <c r="J6" t="n">
-        <v>86040.31879948458</v>
+        <v>89068.29191787529</v>
       </c>
       <c r="K6" t="n">
-        <v>139812.829689694</v>
+        <v>142840.8028080847</v>
       </c>
       <c r="L6" t="n">
-        <v>139812.8296896941</v>
+        <v>142840.8028080846</v>
       </c>
       <c r="M6" t="n">
-        <v>139812.829689694</v>
+        <v>142840.8028080847</v>
       </c>
       <c r="N6" t="n">
-        <v>139812.829689694</v>
+        <v>142840.8028080847</v>
       </c>
       <c r="O6" t="n">
-        <v>134194.5747613314</v>
+        <v>137067.4207412658</v>
       </c>
       <c r="P6" t="n">
-        <v>134194.5747613314</v>
+        <v>137067.4207412658</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34939,10 +34939,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
@@ -35264,10 +35264,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.494781459797586</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,7 +37397,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37634,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37871,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976517.455915592</v>
+        <v>977301.601853621</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776873.403834764</v>
+        <v>4776873.403834765</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0500723064956</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>12.96461552396967</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +788,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,11 +895,11 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W5" t="n">
         <v>205.5178444382804</v>
@@ -962,7 +964,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>53.08398788521271</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,64 +1138,64 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
+      <c r="V8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F8" t="n">
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>167.7197079998867</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1649,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T14" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="15">
@@ -1737,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>205.5178444382804</v>
@@ -1749,10 +1751,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="16">
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>150.2142914581905</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>91.01634947177179</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08227342302185704</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,64 +2238,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>109.8883707013301</v>
+        <v>60.32085216144029</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.10634673358869</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,7 +2693,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>95.77809019286802</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,52 +2809,52 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,13 +2879,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>9.779609449122125</v>
+        <v>105.6152911330824</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3108,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>98.25757553142138</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3585,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>38.47190920803235</v>
       </c>
       <c r="I39" t="n">
-        <v>81.94696239689883</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3752,55 +3754,55 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81.44781579947814</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>23.37503692583649</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>14.69006202085835</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D2" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F2" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4339,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4364,16 +4366,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4416,16 +4418,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4434,25 +4436,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>137.7041268545529</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>137.7041268545529</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>137.7041268545529</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y3" t="n">
-        <v>137.7041268545529</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>110.7436296931158</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4571,10 +4573,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4601,13 +4603,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
         <v>224.0352098159517</v>
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>378.2334820048123</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>229.2990723435611</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>70.06161733810558</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4647,16 +4649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>807.4381113577983</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C8" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4834,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175.6788825605179</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W9" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>551.4880018414752</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>343.894219580586</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5069,22 +5071,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W11" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="U11" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.07469395038575</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O12" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5151,19 +5153,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>16.44142755506243</v>
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C14" t="n">
         <v>28.51141680214578</v>
@@ -5285,7 +5287,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U14" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="V14" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="W14" t="n">
         <v>443.6989813239244</v>
-      </c>
-      <c r="U14" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="V14" t="n">
-        <v>443.6989813239244</v>
-      </c>
-      <c r="W14" t="n">
-        <v>236.1051990630351</v>
       </c>
       <c r="X14" t="n">
         <v>236.1051990630351</v>
       </c>
       <c r="Y14" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5360,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5385,19 +5387,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
         <v>16.44142755506243</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5549,16 +5551,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>508.9694238887622</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>508.9694238887622</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>508.9694238887622</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>711.1560185299961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5706,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>454.3181732824481</v>
+        <v>111.216849647356</v>
       </c>
       <c r="C21" t="n">
-        <v>454.3181732824481</v>
+        <v>111.216849647356</v>
       </c>
       <c r="D21" t="n">
-        <v>305.3837636211968</v>
+        <v>111.216849647356</v>
       </c>
       <c r="E21" t="n">
-        <v>305.3837636211968</v>
+        <v>111.216849647356</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8492056480818</v>
+        <v>111.216849647356</v>
       </c>
       <c r="G21" t="n">
-        <v>20.11838023069728</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.11838023069728</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>454.3181732824481</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>454.3181732824481</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>454.3181732824481</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y21" t="n">
-        <v>454.3181732824481</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5943,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>29.11673520316123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,7 +6080,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>853.0588012668684</v>
+        <v>801.9574723650974</v>
       </c>
       <c r="T24" t="n">
-        <v>650.8722066256344</v>
+        <v>599.7708777238635</v>
       </c>
       <c r="U24" t="n">
-        <v>422.6485883620235</v>
+        <v>599.7708777238635</v>
       </c>
       <c r="V24" t="n">
-        <v>187.4964801302808</v>
+        <v>599.7708777238635</v>
       </c>
       <c r="W24" t="n">
-        <v>187.4964801302808</v>
+        <v>599.7708777238635</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4964801302808</v>
+        <v>391.9193775183306</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>391.9193775183306</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>961.308225475175</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6269,7 +6271,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>263.4840524070985</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353.3011080883284</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C30" t="n">
-        <v>178.8480788072013</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D30" t="n">
-        <v>29.91366914595008</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.3011080883284</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V32" t="n">
-        <v>467.067986854209</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W32" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X32" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.6192102101089</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>489.203140025706</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>489.203140025706</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W33" t="n">
-        <v>489.203140025706</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X33" t="n">
-        <v>489.203140025706</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.203140025706</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C35" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>233.7108255783361</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6970,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>498.6361606388412</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>263.4840524070985</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.8099852548154</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>102.8099852548154</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D39" t="n">
-        <v>102.8099852548154</v>
+        <v>363.9136704403311</v>
       </c>
       <c r="E39" t="n">
-        <v>102.8099852548154</v>
+        <v>204.6762154348756</v>
       </c>
       <c r="F39" t="n">
-        <v>102.8099852548154</v>
+        <v>58.14165746176056</v>
       </c>
       <c r="G39" t="n">
-        <v>102.8099852548154</v>
+        <v>58.14165746176056</v>
       </c>
       <c r="H39" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>518.4217842253022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>310.5702840197694</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.8099852548154</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7402,10 @@
         <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,13 +7441,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
         <v>431.628992076841</v>
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>257.9494035700918</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>98.71194856463632</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7532,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7649,16 +7651,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8221,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,10 +9728,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11151,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,13 +11387,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22547,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22604,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.48311134337176</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,10 +22640,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>124.378901639241</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.3993850387444</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>143.7231242791326</v>
@@ -22850,7 +22852,7 @@
         <v>188.7109832972316</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,16 +22865,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>91.98522450817117</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23072,16 +23074,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>54.02502153750649</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23154,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>38.05327720359074</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23309,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23537,31 +23539,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>180.1701406907881</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23625,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>39.56814895627872</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>27.28274271114486</v>
@@ -23637,10 +23639,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="16">
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>81.55953011607103</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>21.46887964564729</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.31435942839322</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,19 +24101,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24223,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>2.2120531825935</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.79480040250768</v>
+        <v>111.3623189423975</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,10 +24384,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>118.3441281936696</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24509,7 +24511,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>147.8654710062788</v>
+        <v>52.02978932231854</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24996,19 +24998,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>78.70226791530382</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>127.6838065495534</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>107.8833893005683</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25473,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>73.7635350284641</v>
       </c>
       <c r="I39" t="n">
-        <v>7.449670454516252</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>63.62139659390574</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>158.4767060221428</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>318.0899692773254</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25949,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>124.0700286388023</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>191.0829231826191</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423888.3497901133</v>
+        <v>423888.3497901134</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423888.3497901133</v>
+        <v>423888.3497901135</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423888.3497901132</v>
+        <v>423888.3497901134</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402435.0291802145</v>
+        <v>402435.0291802144</v>
       </c>
     </row>
   </sheetData>
@@ -26314,31 +26316,31 @@
         <v>173533.4060184248</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="D2" t="n">
         <v>173533.4060184248</v>
       </c>
       <c r="E2" t="n">
+        <v>173533.4060184247</v>
+      </c>
+      <c r="F2" t="n">
         <v>173533.4060184248</v>
-      </c>
-      <c r="F2" t="n">
-        <v>173533.4060184247</v>
       </c>
       <c r="G2" t="n">
         <v>182776.7397844657</v>
       </c>
       <c r="H2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="I2" t="n">
         <v>182776.7397844656</v>
       </c>
-      <c r="I2" t="n">
-        <v>182776.7397844657</v>
-      </c>
       <c r="J2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26347,13 +26349,13 @@
         <v>182776.7397844656</v>
       </c>
       <c r="N2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="O2" t="n">
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
     </row>
     <row r="3">
@@ -26418,10 +26420,10 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
+        <v>23970.50033531152</v>
+      </c>
+      <c r="D4" t="n">
         <v>23970.50033531153</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23970.50033531152</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
     </row>
     <row r="5">
@@ -26531,19 +26533,19 @@
         <v>137067.4207412658</v>
       </c>
       <c r="F6" t="n">
-        <v>137067.4207412657</v>
+        <v>137067.4207412658</v>
       </c>
       <c r="G6" t="n">
         <v>133111.7598339177</v>
       </c>
       <c r="H6" t="n">
-        <v>142840.8028080847</v>
+        <v>142840.8028080848</v>
       </c>
       <c r="I6" t="n">
         <v>142840.8028080847</v>
       </c>
       <c r="J6" t="n">
-        <v>89068.29191787529</v>
+        <v>89068.29191787523</v>
       </c>
       <c r="K6" t="n">
         <v>142840.8028080847</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34941,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,10 +36448,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>70.5902951096252</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,13 +38107,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>197.2140931478448</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977301.601853621</v>
+        <v>878922.757657514</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776873.403834765</v>
+        <v>6527670.163418164</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.5407712669091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>205.5178444382804</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>120.6356048773794</v>
       </c>
       <c r="G3" t="n">
-        <v>12.96461552396967</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,70 +898,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>6.840485747330202</v>
       </c>
       <c r="F6" t="n">
-        <v>53.08398788521271</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>59.47891889687494</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,61 +1369,61 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>180.2735260549796</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,49 +1548,49 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>154.9607192316007</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>7.83710273534405</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2095,52 +2095,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>119.6864684166033</v>
       </c>
       <c r="G21" t="n">
-        <v>91.01634947177179</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2317,64 +2317,64 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>39.77286532336502</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2405,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.32085216144029</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>95.93667146513117</v>
       </c>
     </row>
     <row r="25">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,61 +2718,61 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>105.6152911330824</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>33.19332575419072</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>200.3360962888297</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>78.94281254009712</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,14 +3274,14 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100.3796369526212</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,43 +3444,43 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>38.47190920803235</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,73 +3660,73 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,40 +3757,40 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>31.15099944008764</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>23.37503692583649</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>41.39970040110641</v>
       </c>
       <c r="X45" t="n">
         <v>205.5178444382804</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>466.1017926944763</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
         <v>672.8764276104736</v>
@@ -4354,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y2" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.9061343838161</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="C3" t="n">
-        <v>142.9061343838161</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="D3" t="n">
-        <v>142.9061343838161</v>
+        <v>297.5330289013053</v>
       </c>
       <c r="E3" t="n">
-        <v>142.9061343838161</v>
+        <v>138.2955738958498</v>
       </c>
       <c r="F3" t="n">
-        <v>142.9061343838161</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4412,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7152536647734</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y3" t="n">
-        <v>311.1214714038841</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
         <v>38.93586374282289</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552.6865112859393</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C6" t="n">
-        <v>378.2334820048123</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D6" t="n">
-        <v>229.2990723435611</v>
+        <v>170.639699743923</v>
       </c>
       <c r="E6" t="n">
-        <v>70.06161733810558</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4658,7 +4658,7 @@
         <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4682,16 +4682,16 @@
         <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4746,31 +4746,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G8" t="n">
         <v>28.51141680214578</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>651.2927635848137</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>443.6989813239244</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V8" t="n">
-        <v>236.1051990630351</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W8" t="n">
-        <v>28.51141680214578</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X8" t="n">
-        <v>28.51141680214578</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.51141680214578</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>554.3978794347829</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>554.3978794347829</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>405.4634697735316</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>246.2260147680761</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>614.4775954922324</v>
+        <v>761.9916616956722</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>761.9916616956722</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>761.9916616956722</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>554.3978794347829</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5050,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5068,25 +5068,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,13 +5126,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5162,10 +5162,10 @@
         <v>199.2900309704538</v>
       </c>
       <c r="X12" t="n">
-        <v>17.19556020784815</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.19556020784815</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
         <v>16.44142755506243</v>
@@ -5238,13 +5238,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5284,7 +5284,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5308,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,16 +5390,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X15" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
         <v>16.44142755506243</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4543795481899</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>313.2169245427344</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>166.6823665696193</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>27.95154115223485</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>27.95154115223485</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5636,10 +5636,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>274.0360370837871</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.216849647356</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C21" t="n">
-        <v>111.216849647356</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D21" t="n">
-        <v>111.216849647356</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="E21" t="n">
-        <v>111.216849647356</v>
+        <v>254.2998339984528</v>
       </c>
       <c r="F21" t="n">
-        <v>111.216849647356</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>279.432186667424</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.432186667424</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>923.8825440728938</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>712.7511606524439</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>223.7040404982626</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C24" t="n">
-        <v>223.7040404982626</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D24" t="n">
-        <v>223.7040404982626</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E24" t="n">
-        <v>223.7040404982626</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>223.7040404982626</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>801.9574723650974</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>599.7708777238635</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>599.7708777238635</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>599.7708777238635</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>599.7708777238635</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X24" t="n">
-        <v>391.9193775183306</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y24" t="n">
-        <v>391.9193775183306</v>
+        <v>631.9993185262358</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C30" t="n">
-        <v>413.6284904444873</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D30" t="n">
-        <v>264.694080783236</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C32" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>761.6974622895962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>761.6974622895962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>761.6974622895962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>518.2486856454962</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W33" t="n">
-        <v>384.2867411876791</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X33" t="n">
-        <v>384.2867411876791</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>384.2867411876791</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C39" t="n">
-        <v>512.8480801015824</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D39" t="n">
-        <v>363.9136704403311</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="E39" t="n">
-        <v>204.6762154348756</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="F39" t="n">
-        <v>58.14165746176056</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="G39" t="n">
-        <v>58.14165746176056</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
         <v>16.44142755506243</v>
@@ -7499,10 +7499,10 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
         <v>16.44142755506243</v>
@@ -7593,28 +7593,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7651,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>670.6884303378189</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C45" t="n">
-        <v>199.2900309704538</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>399.2423717498644</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,7 +7990,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,10 +8306,10 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O6" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8774,16 +8774,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8932,10 +8932,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,16 +9959,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>185.4193833999402</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11147,13 +11147,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11387,13 +11387,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>328.5558052311782</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.7321410888975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>124.378901639241</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972316</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22874,19 +22874,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.98522450817117</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.02502153750649</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.2215652569456</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23308,10 +23308,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>139.1334471717171</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>25.49945914849792</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>180.1701406907881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23630,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X15" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>17.74777975671506</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>81.55953011607103</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23983,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,28 +24050,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>25.38274397678053</v>
       </c>
       <c r="G21" t="n">
-        <v>46.32716769143885</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24293,22 +24293,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>111.3623189423975</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>109.7460243121732</v>
       </c>
     </row>
     <row r="25">
@@ -24405,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>337.6653060427309</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24727,25 +24727,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>52.02978932231854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>172.4893700231136</v>
       </c>
     </row>
     <row r="31">
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,16 +24931,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>22.7597532753017</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,13 +25004,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>78.70226791530382</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>55.3580723357268</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25055,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>306.4964087890903</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8833893005683</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,13 +25438,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25475,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>73.7635350284641</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>18.74806370369507</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25523,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25645,13 +25645,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>367.0362285705784</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>318.0899692773254</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>124.0700286388023</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>210.2952827598132</v>
       </c>
       <c r="X45" t="n">
         <v>0.2551407651970692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402435.0291802145</v>
+        <v>1009066.812613519</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402435.0291802145</v>
+        <v>1009066.812613519</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402435.0291802145</v>
+        <v>1009066.812613519</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423888.3497901135</v>
+        <v>423888.3497901133</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423888.3497901134</v>
+        <v>423888.3497901132</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402435.0291802144</v>
+        <v>402435.0291802145</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184248</v>
-      </c>
-      <c r="C2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173533.4060184247</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184248</v>
@@ -26331,16 +26331,16 @@
         <v>182776.7397844657</v>
       </c>
       <c r="H2" t="n">
+        <v>182776.7397844656</v>
+      </c>
+      <c r="I2" t="n">
         <v>182776.7397844657</v>
       </c>
-      <c r="I2" t="n">
-        <v>182776.7397844656</v>
-      </c>
       <c r="J2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="K2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="L2" t="n">
         <v>182776.7397844656</v>
@@ -26349,13 +26349,13 @@
         <v>182776.7397844656</v>
       </c>
       <c r="N2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="O2" t="n">
         <v>173533.4060184248</v>
       </c>
       <c r="P2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23970.50033531152</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="C4" t="n">
-        <v>23970.50033531152</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="D4" t="n">
-        <v>23970.50033531153</v>
+        <v>312508.3744827596</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
@@ -26456,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34566.06415957594</v>
+        <v>24067.75741905886</v>
       </c>
       <c r="C6" t="n">
-        <v>103439.8207412658</v>
+        <v>92941.51400074878</v>
       </c>
       <c r="D6" t="n">
-        <v>103439.8207412658</v>
+        <v>92941.51400074895</v>
       </c>
       <c r="E6" t="n">
-        <v>137067.4207412658</v>
+        <v>124429.2585864053</v>
       </c>
       <c r="F6" t="n">
-        <v>137067.4207412658</v>
+        <v>124429.2585864053</v>
       </c>
       <c r="G6" t="n">
-        <v>133111.7598339177</v>
+        <v>120893.7492138772</v>
       </c>
       <c r="H6" t="n">
-        <v>142840.8028080848</v>
+        <v>130622.7921880442</v>
       </c>
       <c r="I6" t="n">
-        <v>142840.8028080847</v>
+        <v>130622.7921880443</v>
       </c>
       <c r="J6" t="n">
-        <v>89068.29191787523</v>
+        <v>76850.28129783482</v>
       </c>
       <c r="K6" t="n">
-        <v>142840.8028080847</v>
+        <v>130622.7921880443</v>
       </c>
       <c r="L6" t="n">
-        <v>142840.8028080846</v>
+        <v>130622.7921880442</v>
       </c>
       <c r="M6" t="n">
-        <v>142840.8028080847</v>
+        <v>130622.7921880442</v>
       </c>
       <c r="N6" t="n">
-        <v>142840.8028080847</v>
+        <v>130622.7921880442</v>
       </c>
       <c r="O6" t="n">
-        <v>137067.4207412658</v>
+        <v>124429.2585864053</v>
       </c>
       <c r="P6" t="n">
-        <v>137067.4207412658</v>
+        <v>124429.2585864053</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>180.1930703965715</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,19 +27469,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>24.43360751600443</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>66.37591561768433</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>150.8045947080707</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>209.1797431292664</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>247.7959169296313</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,13 +27943,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>173.3216682525503</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28010,34 +28010,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>122.9433375000607</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34710,7 +34710,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O6" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>148.1480627106907</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35652,10 +35652,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>43.28534947792188</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37396,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38107,13 +38107,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
